--- a/UserAttendance.xlsx
+++ b/UserAttendance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>fullname</t>
   </si>
@@ -31,43 +31,16 @@
     <t>lat</t>
   </si>
   <si>
-    <t>Abubakar Muhammad Zayyad</t>
-  </si>
-  <si>
-    <t>17:17:16 GMT+0100 (West Africa Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat May 04 2024</t>
+    <t>Ag. Director Abubakar Bello Afegbua</t>
+  </si>
+  <si>
+    <t>17:58:50 GMT+0100 (West Africa Standard Time)</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024</t>
   </si>
   <si>
     <t>NPC Headquaters</t>
-  </si>
-  <si>
-    <t>Agabi Alhassan Yusuf</t>
-  </si>
-  <si>
-    <t>12:12:57 GMT+0100 (West Africa Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue May 07 2024</t>
-  </si>
-  <si>
-    <t>Ag. Director Abubakar Bello Afegbua</t>
-  </si>
-  <si>
-    <t>07:36:26 GMT+0100 (West Africa Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat May 11 2024</t>
-  </si>
-  <si>
-    <t>Ndefo Afamefuna Nkemjika</t>
-  </si>
-  <si>
-    <t>07:48:04 GMT+0100 (West Africa Standard Time)</t>
-  </si>
-  <si>
-    <t>07:51:24 GMT+0100 (West Africa Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,86 +452,6 @@
       </c>
       <c r="D2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>3.3903</v>
-      </c>
-      <c r="F3">
-        <v>6.4474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>3.3380925</v>
-      </c>
-      <c r="F4">
-        <v>6.4736205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>3.3380925</v>
-      </c>
-      <c r="F5">
-        <v>6.4736205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>8.6794</v>
-      </c>
-      <c r="F6">
-        <v>50.1108</v>
       </c>
     </row>
   </sheetData>

--- a/UserAttendance.xlsx
+++ b/UserAttendance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>fullname</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>NPC Headquaters</t>
+  </si>
+  <si>
+    <t>19:26:53 GMT+0100 (West Africa Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Jun 07 2024</t>
+  </si>
+  <si>
+    <t>19:26:54 GMT+0100 (West Africa Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -451,6 +460,34 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
